--- a/upload/xlsx_excel/template_live_iku.xlsx
+++ b/upload/xlsx_excel/template_live_iku.xlsx
@@ -31,7 +31,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>DHD:</t>
         </r>
@@ -40,7 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 lvl=[1]</t>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>DHD:</t>
         </r>
@@ -64,7 +64,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 lvl=[2]</t>
@@ -79,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>DHD:</t>
         </r>
@@ -88,7 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 lvl=[3]</t>
@@ -196,9 +196,6 @@
     <t>01.1.23</t>
   </si>
   <si>
-    <t>1.01.01</t>
-  </si>
-  <si>
     <t>select * from sp_rpt_iku_anggaran ('2022.1') where lvl::int &lt;= 3</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>1.02</t>
   </si>
 </sst>
 </file>
@@ -229,32 +229,13 @@
     <numFmt numFmtId="165" formatCode="#,##0.00,,;\ \(#,##0.00,,\)"/>
     <numFmt numFmtId="166" formatCode="#\."/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -275,12 +256,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0066FF"/>
       <name val="Consolas"/>
@@ -295,17 +270,54 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,24 +350,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,8 +360,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -377,97 +383,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,9 +426,11 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,318 +438,180 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,7 +619,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1115,247 +945,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="1.5546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="5" width="11.88671875" style="35" customWidth="1"/>
-    <col min="6" max="7" width="4.77734375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="93.21875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="1.5546875" style="15" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="45" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" style="46" customWidth="1"/>
+    <col min="6" max="7" width="4.77734375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="93.21875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="18" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="21" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="81" t="str">
+      <c r="C1" s="52" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" s="21" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21">
         <v>2022</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="79" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="58" t="s">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="76"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="9" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:10" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+    <row r="7" spans="1:10" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="83" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="62">
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="35">
         <v>1</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="36">
         <v>77567389975.100006</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="85" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="63">
+      <c r="H9" s="47"/>
+      <c r="I9" s="35">
         <v>2</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="36">
         <v>986782456.11000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="35">
         <v>3</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="36">
         <v>986782456.11000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="15"/>
+      <c r="J12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
+  <conditionalFormatting sqref="C8:J1000">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:J1000">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$I8=2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -1378,115 +1210,115 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="40" style="15" customWidth="1"/>
-    <col min="3" max="3" width="40" style="16" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="3.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+    </row>
+    <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-    </row>
-    <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="C3" s="57"/>
+    </row>
+    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="86"/>
-    </row>
-    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="12" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
